--- a/server/excel/url/daysCb(每日成本)_url.xlsx
+++ b/server/excel/url/daysCb(每日成本)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>命令码</t>
   </si>
@@ -518,10 +518,10 @@
 }</t>
   </si>
   <si>
-    <t>分包临建项目-新增</t>
-  </si>
-  <si>
-    <t>/daysCb/fbLjxmCbAdd</t>
+    <t>分包临建项目-新增量</t>
+  </si>
+  <si>
+    <t>/daysCb/fbLjxmCbAddCount</t>
   </si>
   <si>
     <t>cb:CbhsDaysFbLjxmCb,submitType:int</t>
@@ -530,13 +530,37 @@
     <t>分包临建项目,提交方式(0默认提交 1审核提交)</t>
   </si>
   <si>
+    <t>分包临建项目-新增价格</t>
+  </si>
+  <si>
+    <t>/daysCb/fbLjxmCbAddJg</t>
+  </si>
+  <si>
+    <t>daysFbLjxmCbOid:int,fbPrice:double,fbUnitPrice:double,submitType:int</t>
+  </si>
+  <si>
+    <t>数量统计ID,总金额,单价,提交方式(0默认提交 1审核提交)</t>
+  </si>
+  <si>
+    <t>分包临建项目-修改价格</t>
+  </si>
+  <si>
+    <t>/daysCb/fbLjxmCbUpdateJg</t>
+  </si>
+  <si>
+    <t>daysFbLjxmCbOid:int,fbPrice:double,fbUnitPrice:double</t>
+  </si>
+  <si>
+    <t>数量统计ID,总金额,单价</t>
+  </si>
+  <si>
     <t>分包价格-修改</t>
   </si>
   <si>
     <t>/daysCb/fbJgUpdate</t>
   </si>
   <si>
-    <t>fbGclOid:int,fbPrice:double</t>
+    <t>fbGclOid:int,fbPrice:double,fbUnitPrice:double</t>
   </si>
   <si>
     <t>分包工程ID,分包价格</t>
@@ -559,10 +583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -590,6 +614,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -612,6 +651,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -630,9 +707,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,66 +730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,15 +752,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,6 +774,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,175 +846,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,6 +965,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -985,6 +1024,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1007,21 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1030,164 +1065,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1487,21 +1511,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="22.775" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="7" max="7" width="194.222222222222" customWidth="1"/>
-    <col min="8" max="8" width="147.222222222222" customWidth="1"/>
-    <col min="9" max="9" width="29.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
-    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="194.225" customWidth="1"/>
+    <col min="8" max="8" width="147.225" customWidth="1"/>
+    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="19.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2616,7 +2640,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="3">
-        <v>51001</v>
+        <v>50905</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>163</v>
@@ -2638,17 +2662,17 @@
         <v>166</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="3">
-        <v>51002</v>
+        <v>50906</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>167</v>
@@ -2673,10 +2697,74 @@
         <v>27</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:12">
+      <c r="A37" s="3">
+        <v>51001</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38" s="3">
+        <v>51002</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/excel/url/daysCb(每日成本)_url.xlsx
+++ b/server/excel/url/daysCb(每日成本)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>主键,部门ID,工程项目ID,开始日期,结束日期,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysJjcb[],total:long</t>
-  </si>
-  <si>
-    <t>间接成本预算集合,总条数</t>
+    <t>result:CbhsDaysJjcb[],total:long,jjcbTotal:CbhsDaysJjcb</t>
+  </si>
+  <si>
+    <t>间接成本预算集合,总条数,合计对象</t>
   </si>
   <si>
     <t>间接成本预算-修改</t>
@@ -188,10 +188,10 @@
     <t>/daysCb/todayFetch</t>
   </si>
   <si>
-    <t>projectOid:int</t>
-  </si>
-  <si>
-    <t>工程项目ID</t>
+    <t>projectOid:int,daysStamp:long</t>
+  </si>
+  <si>
+    <t>工程项目ID,日期</t>
   </si>
   <si>
     <t>自营零星用工成本-查询</t>
@@ -584,9 +584,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -798,6 +798,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -846,6 +852,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -858,6 +870,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -918,43 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,10 +1073,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,112 +1106,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,19 +1513,19 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.775" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="7" max="7" width="194.225" customWidth="1"/>
-    <col min="8" max="8" width="147.225" customWidth="1"/>
-    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="19.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="194.222222222222" customWidth="1"/>
+    <col min="8" max="8" width="147.222222222222" customWidth="1"/>
+    <col min="9" max="9" width="58.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="30.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">

--- a/server/excel/url/daysCb(每日成本)_url.xlsx
+++ b/server/excel/url/daysCb(每日成本)_url.xlsx
@@ -774,36 +774,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,145 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,145 +1073,145 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/server/excel/url/daysCb(每日成本)_url.xlsx
+++ b/server/excel/url/daysCb(每日成本)_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>命令码</t>
   </si>
@@ -135,10 +135,10 @@
     <t>/daysCb/glfyFetch</t>
   </si>
   <si>
-    <t>result:CbhsDaysGlfyYs[],total:long</t>
-  </si>
-  <si>
-    <t>管理费用集合,总条数</t>
+    <t>result:CbhsDaysGlfyYs[],total:long,hj:CbhsDaysGlfyYs</t>
+  </si>
+  <si>
+    <t>管理费用集合,总条数,合计</t>
   </si>
   <si>
     <t>管理费用预算-修改</t>
@@ -200,10 +200,10 @@
     <t>/daysCb/zyLxygCbFetch</t>
   </si>
   <si>
-    <t>result:CbhsDaysZyLxygCb[],total:long</t>
-  </si>
-  <si>
-    <t>自营零星用工成本集合,总条数</t>
+    <t>result:CbhsDaysZyLxygCb[],total:long,hj:CbhsDaysZyLxygCb</t>
+  </si>
+  <si>
+    <t>自营零星用工成本集合,总条数,合计</t>
   </si>
   <si>
     <t>自营零星用工成本-修改</t>
@@ -262,7 +262,7 @@
     <t>主键,部门ID,工程项目ID,开始日期,结束日期,页码,数量,开始ID,机械设备ID,全局工程量ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysZyJxCb[],total:long</t>
+    <t>result:CbhsDaysZyJxCb[],total:long,hj:CbhsDaysZyJxCb</t>
   </si>
   <si>
     <t>自营机械成本集合,总条数</t>
@@ -318,7 +318,7 @@
     <t>/daysCb/zyQtCbFetch</t>
   </si>
   <si>
-    <t>result:CbhsDaysZyQtCb[],total:long</t>
+    <t>result:CbhsDaysZyQtCb[],total:long,hj:CbhsDaysZyQtCb</t>
   </si>
   <si>
     <t>自营其他成本集合,总条数</t>
@@ -371,10 +371,10 @@
     <t>主键,部门ID,工程量ID,工程项目ID,开始日期,结束日期,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysZyCailiaoCb[],total:long</t>
-  </si>
-  <si>
-    <t>自营材料成本集合,总条数</t>
+    <t>result:CbhsDaysZyCailiaoCb[],total:long,hj:CbhsDaysZyCailiaoCb</t>
+  </si>
+  <si>
+    <t>自营材料成本集合,总条数,合计</t>
   </si>
   <si>
     <t>自营材料成本-修改</t>
@@ -433,22 +433,25 @@
     <t>主键,部门ID,工程量ID,工程项目ID,开始日期,结束日期,页码,数量,开始ID,类型(1:大项|2:有单价的项),审核状态 0所有 1 审核通过的,合同ID,合同名称,分包商ID,分包商名称,分包工程名称</t>
   </si>
   <si>
-    <t>result:CbhsDaysFbGclTj[],total:long</t>
+    <t>result:CbhsDaysFbGclTj[],total:long,hj:CbhsDaysFbGclTj</t>
+  </si>
+  <si>
+    <t>分包工程量集合,总条数,合计</t>
+  </si>
+  <si>
+    <t>分包工程量-修改</t>
+  </si>
+  <si>
+    <t>/daysCb/fbGclTjCbUpdate</t>
+  </si>
+  <si>
+    <t>CbhsDaysFbGclTj</t>
+  </si>
+  <si>
+    <t>分包工程</t>
   </si>
   <si>
     <t>分包工程量集合,总条数</t>
-  </si>
-  <si>
-    <t>分包工程量-修改</t>
-  </si>
-  <si>
-    <t>/daysCb/fbGclTjCbUpdate</t>
-  </si>
-  <si>
-    <t>CbhsDaysFbGclTj</t>
-  </si>
-  <si>
-    <t>分包工程</t>
   </si>
   <si>
     <t>分包工程量-删除</t>
@@ -486,10 +489,10 @@
     <t>主键,部门ID,工程项目ID,月份时间戳,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsDaysFbLjxmCb[],total:long</t>
-  </si>
-  <si>
-    <t>分包临建项目集合,总条数</t>
+    <t>result:CbhsDaysFbLjxmCb[],total:long,hj:CbhsDaysFbLjxmCb</t>
+  </si>
+  <si>
+    <t>分包临建项目集合,总条数,合计</t>
   </si>
   <si>
     <t>分包临建项目-修改</t>
@@ -584,9 +587,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -774,6 +777,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -786,12 +795,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -810,151 +855,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,10 +1076,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,133 +1088,133 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2437,7 +2440,7 @@
         <v>136</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
@@ -2447,10 +2450,10 @@
         <v>50803</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>14</v>
@@ -2463,7 +2466,7 @@
         <v>25</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>27</v>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:12">
@@ -2481,10 +2484,10 @@
         <v>50804</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>14</v>
@@ -2494,16 +2497,16 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>136</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
@@ -2513,10 +2516,10 @@
         <v>50901</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
@@ -2529,13 +2532,13 @@
         <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
@@ -2545,10 +2548,10 @@
         <v>50902</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>14</v>
@@ -2558,16 +2561,16 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
@@ -2577,10 +2580,10 @@
         <v>50903</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
@@ -2593,7 +2596,7 @@
         <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>27</v>
@@ -2603,7 +2606,7 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:12">
@@ -2611,10 +2614,10 @@
         <v>50904</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>14</v>
@@ -2624,16 +2627,16 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
@@ -2643,10 +2646,10 @@
         <v>50905</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
@@ -2656,16 +2659,16 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
@@ -2675,10 +2678,10 @@
         <v>50906</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -2688,16 +2691,16 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -2707,10 +2710,10 @@
         <v>51001</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
@@ -2720,10 +2723,10 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>27</v>
@@ -2739,10 +2742,10 @@
         <v>51002</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -2752,10 +2755,10 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>136</v>
